--- a/Data/Isoform_recruitmentPaths_Dm10.xlsx
+++ b/Data/Isoform_recruitmentPaths_Dm10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggie/Dropbox/m2022/DYNAMIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843DA58-DD5D-D74B-9397-EF7756240E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F8859-8593-5F47-A09B-A4F3D0050FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="3460" windowWidth="26840" windowHeight="15940" activeTab="5" xr2:uid="{6F0CD8B7-FE2C-4C45-B90B-11F56951E4B6}"/>
+    <workbookView xWindow="3000" yWindow="2840" windowWidth="28480" windowHeight="17960" activeTab="2" xr2:uid="{6F0CD8B7-FE2C-4C45-B90B-11F56951E4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Dyn1BB" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="73">
   <si>
     <t>Post</t>
   </si>
@@ -219,13 +219,52 @@
   </si>
   <si>
     <t>*All models have Dmem0=10 copies/um2. Other variable parameters are optimized to reproduce experiment, given the fixed Dsol0 values.</t>
+  </si>
+  <si>
+    <t>Dyn1aa -Alternate</t>
+  </si>
+  <si>
+    <t>Dyn1aa-Alternate</t>
+  </si>
+  <si>
+    <t>kb post (s-1)</t>
+  </si>
+  <si>
+    <t>Dtotal (uM)</t>
+  </si>
+  <si>
+    <t>Dsol post (uM)</t>
+  </si>
+  <si>
+    <t>Dmem post (copies/um2)</t>
+  </si>
+  <si>
+    <t>V/A (um)</t>
+  </si>
+  <si>
+    <t>Dmem_post (copies/um2)</t>
+  </si>
+  <si>
+    <t>Dsol_post (uM)</t>
+  </si>
+  <si>
+    <t>kb (s-1) *constrained to equilibrium</t>
+  </si>
+  <si>
+    <t>kb_post (s-1) *constrained to equilibrium</t>
+  </si>
+  <si>
+    <t>PARAMETERS IN GOLD ARE OPTIMAL VALUES FOUND USING STOCHASTIC OPTIMIZATION, OTHER PARMS WERE EITHER FIXED OR CONSTRAINED BY EXPERIMENT (Dmem_post) OR EQUILIBRIUM (kb)</t>
+  </si>
+  <si>
+    <t>Multiplicative Factor for BB=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,8 +312,23 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +376,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -325,8 +387,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +709,7 @@
   <dimension ref="C2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,11 +771,11 @@
       <c r="E7" s="5">
         <v>0.74572997169808297</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>-4421.9585717741102</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I11" si="0">100/(1+1/D7)</f>
+        <f t="shared" ref="H7:I10" si="0">100/(1+1/D7)</f>
         <v>14.121891250174539</v>
       </c>
       <c r="I7">
@@ -740,7 +805,7 @@
       <c r="E8" s="5">
         <v>1.4081417236462599</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>-4640.1612747376203</v>
       </c>
       <c r="H8">
@@ -756,7 +821,7 @@
         <v>10625.3</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K11" si="1">10*1.85</f>
+        <f t="shared" ref="K8:K10" si="1">10*1.85</f>
         <v>18.5</v>
       </c>
       <c r="L8">
@@ -774,7 +839,7 @@
       <c r="E9" s="5">
         <v>6.47944695871535</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>-8783.2705253757304</v>
       </c>
       <c r="H9">
@@ -808,7 +873,7 @@
       <c r="E10" s="5">
         <v>13.794002928286901</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>-8559.9043899999997</v>
       </c>
       <c r="H10">
@@ -896,7 +961,7 @@
       <c r="E6">
         <v>1.0485399958075901</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H6">
@@ -918,7 +983,7 @@
       <c r="E7">
         <v>2.0461074264885002</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>-6055.4817171922296</v>
       </c>
       <c r="H7">
@@ -940,7 +1005,7 @@
       <c r="E8">
         <v>10.4525764837626</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>-10382.5213538927</v>
       </c>
       <c r="H8">
@@ -962,7 +1027,7 @@
       <c r="E9">
         <v>22.478302735744901</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>-10888.0297493788</v>
       </c>
       <c r="H9">
@@ -989,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342AF08F-D644-2E4C-B696-1C2F04C20147}">
   <dimension ref="C1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1103,7 @@
       <c r="E7">
         <v>0.32584120540861999</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>-2908.9032865403801</v>
       </c>
       <c r="H7">
@@ -1060,7 +1125,7 @@
       <c r="E8">
         <v>0.65358068834032002</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>-2991.3981908801402</v>
       </c>
       <c r="H8">
@@ -1082,7 +1147,7 @@
       <c r="E9">
         <v>3.1363026686508499</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>-3871.48578849769</v>
       </c>
       <c r="H9">
@@ -1104,7 +1169,7 @@
       <c r="E10">
         <v>6.26521743192</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>-4202.4203189283398</v>
       </c>
       <c r="H10">
@@ -1124,27 +1189,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93B7A28-8585-D240-B9B7-53009E6C7C30}">
-  <dimension ref="B1:AK26"/>
+  <dimension ref="B1:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" ht="24" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="17">
+        <v>1.91</v>
+      </c>
       <c r="V1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1182,1690 +1272,2250 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W4" t="s">
         <v>23</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y4" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB4" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC4" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE4" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF4" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG4" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI4" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ4" t="s">
         <v>54</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5">
+        <v>2.3324559600000003E-3</v>
+      </c>
+      <c r="X5">
+        <v>0.11255118</v>
+      </c>
+      <c r="Y5">
+        <v>1.34958288E-2</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5">
+        <v>4.0421470300000002E-3</v>
+      </c>
+      <c r="AB5">
+        <v>2.0107657000000001E-3</v>
+      </c>
+      <c r="AC5">
+        <v>4.0416276500000001E-2</v>
+      </c>
+      <c r="AE5">
+        <v>5.8495970000000001E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2.5079329800000001E-2</v>
+      </c>
+      <c r="AG5">
+        <v>3.5371309500000003E-2</v>
+      </c>
+      <c r="AI5">
+        <v>5.9983531600000001E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>4.691737E-2</v>
+      </c>
+      <c r="AK5">
+        <v>7.7100548100000003E-3</v>
+      </c>
+      <c r="AM5">
+        <f>AM26</f>
+        <v>4.0416276500000001E-2</v>
+      </c>
+      <c r="AN5">
+        <f>AN26</f>
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="13"/>
+      <c r="V6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>91.722511699999998</v>
+      </c>
+      <c r="X6">
+        <v>19.03890329</v>
+      </c>
+      <c r="Y6">
+        <v>97.349533399999899</v>
+      </c>
+      <c r="AA6">
+        <v>91.742394099999999</v>
+      </c>
+      <c r="AB6">
+        <v>69.650854199999998</v>
+      </c>
+      <c r="AC6">
+        <v>60.196532400000002</v>
+      </c>
+      <c r="AE6">
+        <v>20.017546969999998</v>
+      </c>
+      <c r="AF6">
+        <v>47.3707286</v>
+      </c>
+      <c r="AG6">
+        <v>95.181129600000006</v>
+      </c>
+      <c r="AI6">
+        <v>119.03836000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>3.2703579599999997</v>
+      </c>
+      <c r="AK6">
+        <v>54.674536900000007</v>
+      </c>
+      <c r="AM6">
+        <f>AM25</f>
+        <v>60.196532400000002</v>
+      </c>
+      <c r="AN6">
+        <f>AN25</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>0.5</v>
+      </c>
+      <c r="AM7">
+        <f>AM22</f>
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <f>AN22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <f>D6+D7/$K$1/602</f>
+        <v>10.008697013445582</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:F8" si="0">E6+E7/$K$1/602</f>
+        <v>10.008697013445582</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10.008697013445582</v>
+      </c>
+      <c r="H8">
+        <f>H6+H7/$K$1/602</f>
+        <v>5.008697013445583</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:P8" si="1">I6+I7/$K$1/602</f>
+        <v>5.008697013445583</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5.008697013445583</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>5.008697013445583</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.0086970134455828</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.0086970134455828</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1.0086970134455828</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.50869701344558282</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="2">Q6+Q7/$K$1/602</f>
+        <v>0.50869701344558282</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="3">R6+R7/$K$1/602</f>
+        <v>0.50869701344558282</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f>D8-D12/$K$1/602</f>
+        <v>9.9478179193265035</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:F9" si="4">E8-E12/$K$1/602</f>
+        <v>9.9652119462176678</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>9.9913029865544161</v>
+      </c>
+      <c r="H9">
+        <f>H8-H12/$K$1/602</f>
+        <v>4.9478179193265035</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="5">I8-I12/$K$1/602</f>
+        <v>4.9652119462176687</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:K9" si="6">J8-J12/$K$1/602</f>
+        <v>4.9913029865544178</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>4.9913029865544178</v>
+      </c>
+      <c r="L9">
+        <f>L8-L12/$K$1/602</f>
+        <v>0.94781791932650328</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9" si="7">M8-M12/$K$1/602</f>
+        <v>0.96521194621766893</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="8">N8-N12/$K$1/602</f>
+        <v>0.99130298655441729</v>
+      </c>
+      <c r="P9">
+        <f>P8-P12/$K$1/602</f>
+        <v>0.44781791932650333</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="9">Q8-Q12/$K$1/602</f>
+        <v>0.46521194621766887</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="10">R8-R12/$K$1/602</f>
+        <v>0.49130298655441723</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>590.62797699999999</v>
+      </c>
+      <c r="E10">
+        <v>17.301410099999899</v>
+      </c>
+      <c r="F10">
+        <v>39.691059699999897</v>
+      </c>
+      <c r="H10">
+        <v>893.52324999999996</v>
+      </c>
+      <c r="I10">
+        <v>795.30009499999994</v>
+      </c>
+      <c r="J10">
+        <v>23.3993495399999</v>
+      </c>
+      <c r="K10">
+        <v>820</v>
+      </c>
+      <c r="L10">
+        <v>268.49857600000001</v>
+      </c>
+      <c r="M10">
+        <v>226.562769</v>
+      </c>
+      <c r="N10">
+        <v>84.9595822</v>
+      </c>
+      <c r="P10">
+        <v>323.64468799999997</v>
+      </c>
+      <c r="Q10">
+        <v>213.253445</v>
+      </c>
+      <c r="R10">
+        <v>402.28841999999997</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <f>AM23</f>
+        <v>10</v>
+      </c>
+      <c r="AN10">
+        <f>AN23</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>91.722511699999998</v>
+      </c>
+      <c r="E11">
+        <v>19.03890329</v>
+      </c>
+      <c r="F11">
+        <v>97.349533399999899</v>
+      </c>
+      <c r="H11">
+        <v>91.742394099999999</v>
+      </c>
+      <c r="I11">
+        <v>69.650854199999998</v>
+      </c>
+      <c r="J11">
+        <v>60.196532400000002</v>
+      </c>
+      <c r="K11">
+        <v>23.4</v>
+      </c>
+      <c r="L11">
+        <v>20.017546969999998</v>
+      </c>
+      <c r="M11">
+        <v>47.3707286</v>
+      </c>
+      <c r="N11">
+        <v>95.181129600000006</v>
+      </c>
+      <c r="P11">
+        <v>119.03836000000001</v>
+      </c>
+      <c r="Q11">
+        <v>3.2703579599999997</v>
+      </c>
+      <c r="R11">
+        <v>54.674536900000007</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>1.1577020899999999E-4</v>
+      </c>
+      <c r="X11">
+        <v>2.82028696E-3</v>
+      </c>
+      <c r="Y11">
+        <v>4.7191669999999998E-4</v>
+      </c>
+      <c r="AA11">
+        <v>4.8350674499999998E-4</v>
+      </c>
+      <c r="AB11">
+        <v>7.4452043000000005E-4</v>
+      </c>
+      <c r="AC11">
+        <v>0.10709256</v>
+      </c>
+      <c r="AE11">
+        <v>0.176776454</v>
+      </c>
+      <c r="AF11">
+        <v>4.5506451200000005E-4</v>
+      </c>
+      <c r="AG11">
+        <v>1.7360844899999998E-2</v>
+      </c>
+      <c r="AI11">
+        <v>0.26521310400000003</v>
+      </c>
+      <c r="AJ11">
+        <v>3.6261888700000001E-2</v>
+      </c>
+      <c r="AK11">
+        <v>0.21139392699999998</v>
+      </c>
+      <c r="AM11">
+        <f>AM29</f>
+        <v>0.10709256</v>
+      </c>
+      <c r="AN11">
+        <f>AN29</f>
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <f>D7*7</f>
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <f>E7*5</f>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f>F7*2</f>
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <f>H7*7</f>
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f>I7*5</f>
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <f>J7*2</f>
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <f>K7*2</f>
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <f>L7*7</f>
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <f>M7*5</f>
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <f>N7*2</f>
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <f>P7*7</f>
+        <v>70</v>
+      </c>
+      <c r="Q12">
+        <f>Q7*5</f>
+        <v>50</v>
+      </c>
+      <c r="R12">
+        <f>R7*2</f>
+        <v>20</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>2.3324559600000003E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.11255118</v>
+      </c>
+      <c r="F13">
+        <v>1.34958288E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.0421470300000002E-3</v>
+      </c>
+      <c r="I13">
+        <v>2.0107657000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>4.0416276500000001E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.64E-3</v>
+      </c>
+      <c r="L13">
+        <v>5.8495970000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.5079329800000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.5371309500000003E-2</v>
+      </c>
+      <c r="P13">
+        <v>5.9983531600000001E-2</v>
+      </c>
+      <c r="Q13">
+        <v>4.691737E-2</v>
+      </c>
+      <c r="R13">
+        <v>7.7100548100000003E-3</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13">
+        <v>5.5869898600000002E-2</v>
+      </c>
+      <c r="X13">
+        <v>6.0136438600000001E-2</v>
+      </c>
+      <c r="Y13">
+        <v>6.3850854100000007E-2</v>
+      </c>
+      <c r="AA13">
+        <v>7.2358486E-2</v>
+      </c>
+      <c r="AB13">
+        <v>9.5454408800000001E-2</v>
+      </c>
+      <c r="AC13">
+        <v>0.11826691</v>
+      </c>
+      <c r="AE13">
+        <v>9.0490643100000004E-2</v>
+      </c>
+      <c r="AF13">
+        <v>0.19841199400000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.236924155</v>
+      </c>
+      <c r="AI13">
+        <v>9.3055782200000006E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>0.163626678</v>
+      </c>
+      <c r="AK13">
+        <v>0.31080373</v>
+      </c>
+      <c r="AM13">
+        <f>AM28</f>
+        <v>0.11826691</v>
+      </c>
+      <c r="AN13">
+        <f>AN28</f>
+        <v>6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>6.8580687300000005E-4</v>
+      </c>
+      <c r="E14">
+        <v>2.58230562E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.46635428E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.66899865E-4</v>
+      </c>
+      <c r="I14">
+        <v>4.0717848200000004E-4</v>
+      </c>
+      <c r="J14">
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.82E-3</v>
+      </c>
+      <c r="L14">
+        <v>4.0529796999999998E-3</v>
+      </c>
+      <c r="M14">
+        <v>5.0588766700000005E-4</v>
+      </c>
+      <c r="N14">
+        <v>1.9884720000000002E-2</v>
+      </c>
+      <c r="P14">
+        <v>3.5919067299999999E-3</v>
+      </c>
+      <c r="Q14">
+        <v>2.1244549499999997E-3</v>
+      </c>
+      <c r="R14">
+        <v>3.0396902199999998E-3</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14">
+        <v>590.62797699999999</v>
+      </c>
+      <c r="X14">
+        <v>17.301410099999899</v>
+      </c>
+      <c r="Y14">
+        <v>39.691059699999897</v>
+      </c>
+      <c r="AA14">
+        <v>893.52324999999996</v>
+      </c>
+      <c r="AB14">
+        <v>795.30009499999994</v>
+      </c>
+      <c r="AC14">
+        <v>23.3993495399999</v>
+      </c>
+      <c r="AE14">
+        <v>268.49857600000001</v>
+      </c>
+      <c r="AF14">
+        <v>226.562769</v>
+      </c>
+      <c r="AG14">
+        <v>84.9595822</v>
+      </c>
+      <c r="AI14">
+        <v>323.64468799999997</v>
+      </c>
+      <c r="AJ14">
+        <v>213.253445</v>
+      </c>
+      <c r="AK14">
+        <v>402.28841999999997</v>
+      </c>
+      <c r="AM14">
+        <f>AM24</f>
+        <v>23.3993495399999</v>
+      </c>
+      <c r="AN14">
+        <f>AN24</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>5.5869898600000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.0136438600000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>6.3850854100000007E-2</v>
+      </c>
+      <c r="H15">
+        <v>7.2358486E-2</v>
+      </c>
+      <c r="I15">
+        <v>9.5454408800000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.11826691</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="L15">
+        <v>9.0490643100000004E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.19841199400000001</v>
+      </c>
+      <c r="N15">
+        <v>0.236924155</v>
+      </c>
+      <c r="P15">
+        <v>9.3055782200000006E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.163626678</v>
+      </c>
+      <c r="R15">
+        <v>0.31080373</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15">
+        <v>6.8580687300000005E-4</v>
+      </c>
+      <c r="X15">
+        <v>2.58230562E-2</v>
+      </c>
+      <c r="Y15">
+        <v>2.46635428E-2</v>
+      </c>
+      <c r="AA15">
+        <v>6.66899865E-4</v>
+      </c>
+      <c r="AB15">
+        <v>4.0717848200000004E-4</v>
+      </c>
+      <c r="AC15">
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="AE15">
+        <v>4.0529796999999998E-3</v>
+      </c>
+      <c r="AF15">
+        <v>5.0588766700000005E-4</v>
+      </c>
+      <c r="AG15">
+        <v>1.9884720000000002E-2</v>
+      </c>
+      <c r="AI15">
+        <v>3.5919067299999999E-3</v>
+      </c>
+      <c r="AJ15">
+        <v>2.1244549499999997E-3</v>
+      </c>
+      <c r="AK15">
+        <v>3.0396902199999998E-3</v>
+      </c>
+      <c r="AM15">
+        <f>AM27</f>
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="AN15">
+        <f>AN27</f>
+        <v>2.82E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>1.1577020899999999E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.82028696E-3</v>
+      </c>
+      <c r="F16">
+        <v>4.7191669999999998E-4</v>
+      </c>
+      <c r="H16">
+        <v>4.8350674499999998E-4</v>
+      </c>
+      <c r="I16">
+        <v>7.4452043000000005E-4</v>
+      </c>
+      <c r="J16">
+        <v>0.10709256</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.176776454</v>
+      </c>
+      <c r="M16">
+        <v>4.5506451200000005E-4</v>
+      </c>
+      <c r="N16">
+        <v>1.7360844899999998E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.26521310400000003</v>
+      </c>
+      <c r="Q16">
+        <v>3.6261888700000001E-2</v>
+      </c>
+      <c r="R16">
+        <v>0.21139392699999998</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1.0618734349513945E-2</v>
+      </c>
+      <c r="X16" s="12">
+        <v>5.3695170681488102E-2</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>4.5940870548667731E-2</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>2.2179033174899103E-2</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>2.5928241959425658E-2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>3.2233003789194727</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0.35386309711350439</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>2.1556737493443447E-3</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0.1652424828392399</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>1.5785266475334723</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>5.9294678177339525E-3</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>0.57789325310987028</v>
+      </c>
+      <c r="AM16">
+        <f>AM30</f>
+        <v>3.2233003789194727</v>
+      </c>
+      <c r="AN16">
+        <f>AN30</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <f>D6*D11/D7*D16</f>
+        <v>1.0618734349513943E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:F17" si="11">E6*E11/E7*E16</f>
+        <v>5.3695170681488102E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>4.5940870548667731E-2</v>
+      </c>
+      <c r="H17">
+        <f>H6*H11/H7*H16</f>
+        <v>2.2179033174899099E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:P17" si="12">I6*I11/I7*I16</f>
+        <v>2.5928241959425655E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>3.2233003789194723</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.12519</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0.35386309711350444</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>2.1556737493443443E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>0.1652424828392399</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="12"/>
+        <v>1.5785266475334725</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="13">Q6*Q11/Q7*Q16</f>
+        <v>5.9294678177339525E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17" si="14">R6*R11/R7*R16</f>
+        <v>0.57789325310987039</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <f>D9*D11/D12*D16</f>
+        <v>1.5090462263237525E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:F18" si="15">E9*E11/E12*E16</f>
+        <v>1.0701675126587238E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="15"/>
+        <v>2.2950457855890685E-2</v>
+      </c>
+      <c r="H18">
+        <f>H9*H11/H12*H16</f>
+        <v>3.135366222174365E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:R18" si="16">I9*I11/I12*I16</f>
+        <v>5.1495686688544989E-3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="16"/>
+        <v>1.6088468807862748</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="16"/>
+        <v>6.2486122088674753E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="16"/>
+        <v>4.7913969204650589E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="16"/>
+        <v>4.1613641100299883E-4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="16"/>
+        <v>8.1902683372102783E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="16"/>
+        <v>0.20196929111425152</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="16"/>
+        <v>1.1033837054092183E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>0.28392068116252706</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="W20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AF21" t="s">
         <v>27</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AG21" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4">
+      <c r="AI21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <f>D10*D13</f>
+        <v>1.377613745096393</v>
+      </c>
+      <c r="E22">
+        <f>E10*E13</f>
+        <v>1.9472941224189066</v>
+      </c>
+      <c r="F22">
+        <f>F10*F13</f>
+        <v>0.53566374660177796</v>
+      </c>
+      <c r="H22">
+        <f>H10*H13</f>
+        <v>3.6117523512234473</v>
+      </c>
+      <c r="I22">
+        <f>I10*I13</f>
+        <v>1.5991621522327415</v>
+      </c>
+      <c r="J22">
+        <f>J10*J13</f>
+        <v>0.9457145809287838</v>
+      </c>
+      <c r="K22">
+        <f>K10*K13</f>
+        <v>1.3448</v>
+      </c>
+      <c r="L22">
+        <f>L10*L13</f>
+        <v>15.706084646738722</v>
+      </c>
+      <c r="M22">
+        <f>M10*M13</f>
+        <v>5.6820424041522166</v>
+      </c>
+      <c r="N22">
+        <f>N10*N13</f>
+        <v>3.005131676986891</v>
+      </c>
+      <c r="P22">
+        <f>P10*P13</f>
+        <v>19.413351369820141</v>
+      </c>
+      <c r="Q22">
+        <f>Q10*Q13</f>
+        <v>10.00529078283965</v>
+      </c>
+      <c r="R22">
+        <f>R10*R13</f>
+        <v>3.1016657676283002</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22">
+        <f>W7</f>
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="17">X7</f>
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ref="AA22:AK22" si="18">AA7</f>
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM22">
+        <v>5</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <f>D10*D14</f>
+        <v>0.40505672601268594</v>
+      </c>
+      <c r="E23">
+        <f>E10*E14</f>
+        <v>0.44677528535154498</v>
+      </c>
+      <c r="F23">
+        <f>F10*F14</f>
+        <v>0.9789221496883026</v>
+      </c>
+      <c r="H23">
+        <f>H10*H14</f>
+        <v>0.59589053479936127</v>
+      </c>
+      <c r="I23">
+        <f>I10*I14</f>
+        <v>0.32382908541655581</v>
+      </c>
+      <c r="J23">
+        <f>J10*J14</f>
+        <v>1.162928952658363</v>
+      </c>
+      <c r="K23">
+        <f>K10*K14</f>
+        <v>2.3124000000000002</v>
+      </c>
+      <c r="L23">
+        <f>L10*L14</f>
+        <v>1.0882192780069071</v>
+      </c>
+      <c r="M23">
+        <f>M10*M14</f>
+        <v>0.11461531063846994</v>
+      </c>
+      <c r="N23">
+        <f>N10*N14</f>
+        <v>1.6893975033639841</v>
+      </c>
+      <c r="P23">
+        <f>P10*P14</f>
+        <v>1.16250153295595</v>
+      </c>
+      <c r="Q23">
+        <f>Q10*Q14</f>
+        <v>0.45304733683480269</v>
+      </c>
+      <c r="R23">
+        <f>R10*R14</f>
+        <v>1.2228321758932523</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23">
+        <f>W10</f>
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:Y23" si="19">X10</f>
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AK23" si="20">AA10</f>
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+      <c r="AN23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24">
+        <f>W14</f>
+        <v>590.62797699999999</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:Y24" si="21">X14</f>
+        <v>17.301410099999899</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="21"/>
+        <v>39.691059699999897</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AK24" si="22">AA14</f>
+        <v>893.52324999999996</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="22"/>
+        <v>795.30009499999994</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="22"/>
+        <v>23.3993495399999</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="22"/>
+        <v>268.49857600000001</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="22"/>
+        <v>226.562769</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="22"/>
+        <v>84.9595822</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="22"/>
+        <v>323.64468799999997</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="22"/>
+        <v>213.253445</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="22"/>
+        <v>402.28841999999997</v>
+      </c>
+      <c r="AM24">
+        <v>23.3993495399999</v>
+      </c>
+      <c r="AN24">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <f>D11*D16</f>
+        <v>1.0618734349513943E-2</v>
+      </c>
+      <c r="E25">
+        <f>E11*E16</f>
+        <v>5.3695170681488102E-2</v>
+      </c>
+      <c r="F25">
+        <f>F11*F16</f>
+        <v>4.5940870548667731E-2</v>
+      </c>
+      <c r="H25">
+        <f>H11*H16</f>
+        <v>4.4358066349798199E-2</v>
+      </c>
+      <c r="I25">
+        <f>I11*I16</f>
+        <v>5.1856483918851309E-2</v>
+      </c>
+      <c r="J25">
+        <f>J11*J16</f>
+        <v>6.4466007578389446</v>
+      </c>
+      <c r="K25">
+        <f>K11*K16</f>
+        <v>0.25037999999999999</v>
+      </c>
+      <c r="L25">
+        <f>L11*L16</f>
+        <v>3.5386309711350439</v>
+      </c>
+      <c r="M25">
+        <f>M11*M16</f>
+        <v>2.1556737493443445E-2</v>
+      </c>
+      <c r="N25">
+        <f>N11*N16</f>
+        <v>1.652424828392399</v>
+      </c>
+      <c r="P25">
+        <f>P11*P16</f>
+        <v>31.570532950669445</v>
+      </c>
+      <c r="Q25">
+        <f>Q11*Q16</f>
+        <v>0.11858935635467904</v>
+      </c>
+      <c r="R25">
+        <f>R11*R16</f>
+        <v>11.557865062197406</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25">
+        <f>W6</f>
+        <v>91.722511699999998</v>
+      </c>
+      <c r="X25">
+        <f>X6</f>
+        <v>19.03890329</v>
+      </c>
+      <c r="Y25">
+        <f>Y6</f>
+        <v>97.349533399999899</v>
+      </c>
+      <c r="AA25">
+        <f>AA6</f>
+        <v>91.742394099999999</v>
+      </c>
+      <c r="AB25">
+        <f>AB6</f>
+        <v>69.650854199999998</v>
+      </c>
+      <c r="AC25">
+        <f>AC6</f>
+        <v>60.196532400000002</v>
+      </c>
+      <c r="AE25">
+        <f>AE6</f>
+        <v>20.017546969999998</v>
+      </c>
+      <c r="AF25">
+        <f>AF6</f>
+        <v>47.3707286</v>
+      </c>
+      <c r="AG25">
+        <f>AG6</f>
+        <v>95.181129600000006</v>
+      </c>
+      <c r="AI25">
+        <f>AI6</f>
+        <v>119.03836000000001</v>
+      </c>
+      <c r="AJ25">
+        <f>AJ6</f>
+        <v>3.2703579599999997</v>
+      </c>
+      <c r="AK25">
+        <f>AK6</f>
+        <v>54.674536900000007</v>
+      </c>
+      <c r="AM25">
+        <v>60.196532400000002</v>
+      </c>
+      <c r="AN25">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26">
+        <f>W5</f>
         <v>2.3324559600000003E-3</v>
       </c>
-      <c r="X4">
+      <c r="X26">
+        <f>X5</f>
         <v>0.11255118</v>
       </c>
-      <c r="Y4">
+      <c r="Y26">
+        <f>Y5</f>
         <v>1.34958288E-2</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4">
+      <c r="AA26">
+        <f>AA5</f>
         <v>4.0421470300000002E-3</v>
       </c>
-      <c r="AB4">
+      <c r="AB26">
+        <f>AB5</f>
         <v>2.0107657000000001E-3</v>
       </c>
-      <c r="AC4">
+      <c r="AC26">
+        <f>AC5</f>
         <v>4.0416276500000001E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AE26">
+        <f>AE5</f>
         <v>5.8495970000000001E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AF26">
+        <f>AF5</f>
         <v>2.5079329800000001E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AG26">
+        <f>AG5</f>
         <v>3.5371309500000003E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AI26">
+        <f>AI5</f>
         <v>5.9983531600000001E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ26">
+        <f>AJ5</f>
         <v>4.691737E-2</v>
       </c>
-      <c r="AK4">
+      <c r="AK26">
+        <f>AK5</f>
         <v>7.7100548100000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="H5">
+      <c r="AM26">
+        <v>4.0416276500000001E-2</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <f>D15/D13</f>
+        <v>23.953249089427608</v>
+      </c>
+      <c r="E27">
+        <f>E15/E13</f>
+        <v>0.53430304862196909</v>
+      </c>
+      <c r="F27">
+        <f>F15/F13</f>
+        <v>4.7311547179673772</v>
+      </c>
+      <c r="H27">
+        <f>H15/H13</f>
+        <v>17.901002972670195</v>
+      </c>
+      <c r="I27">
+        <f>I15/I13</f>
+        <v>47.471671512996267</v>
+      </c>
+      <c r="J27">
+        <f>J15/J13</f>
+        <v>2.9262198362088108</v>
+      </c>
+      <c r="K27">
+        <f>K15/K13</f>
+        <v>42.012195121951223</v>
+      </c>
+      <c r="L27">
+        <f>L15/L13</f>
+        <v>1.5469551680226861</v>
+      </c>
+      <c r="M27">
+        <f>M15/M13</f>
+        <v>7.9113754467234605</v>
+      </c>
+      <c r="N27">
+        <f>N15/N13</f>
+        <v>6.6982014052943102</v>
+      </c>
+      <c r="P27">
+        <f>P15/P13</f>
+        <v>1.5513555090510878</v>
+      </c>
+      <c r="Q27">
+        <f>Q15/Q13</f>
+        <v>3.487550090723329</v>
+      </c>
+      <c r="R27">
+        <f>R15/R13</f>
+        <v>40.311481261700656</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27">
+        <f>W15</f>
+        <v>6.8580687300000005E-4</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:Y27" si="23">X15</f>
+        <v>2.58230562E-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="23"/>
+        <v>2.46635428E-2</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27:AK27" si="24">AA15</f>
+        <v>6.66899865E-4</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="24"/>
+        <v>4.0717848200000004E-4</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="24"/>
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="24"/>
+        <v>4.0529796999999998E-3</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="24"/>
+        <v>5.0588766700000005E-4</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="24"/>
+        <v>1.9884720000000002E-2</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="24"/>
+        <v>3.5919067299999999E-3</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="24"/>
+        <v>2.1244549499999997E-3</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="24"/>
+        <v>3.0396902199999998E-3</v>
+      </c>
+      <c r="AM27">
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>2.82E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <f>D13/D14</f>
+        <v>3.4010390560784014</v>
+      </c>
+      <c r="E28">
+        <f>E13/E14</f>
+        <v>4.3585538105284378</v>
+      </c>
+      <c r="F28">
+        <f>F13/F14</f>
+        <v>0.54719749345986091</v>
+      </c>
+      <c r="H28">
+        <f>H13/H14</f>
+        <v>6.0611003872372953</v>
+      </c>
+      <c r="I28">
+        <f>I13/I14</f>
+        <v>4.93829067322865</v>
+      </c>
+      <c r="J28">
+        <f>J13/J14</f>
+        <v>0.81321784857703949</v>
+      </c>
+      <c r="K28">
+        <f>K13/K14</f>
+        <v>0.58156028368794321</v>
+      </c>
+      <c r="L28">
+        <f>L13/L14</f>
+        <v>14.432830739320012</v>
+      </c>
+      <c r="M28">
+        <f>M13/M14</f>
+        <v>49.57489861084121</v>
+      </c>
+      <c r="N28">
+        <f>N13/N14</f>
+        <v>1.778818585325818</v>
+      </c>
+      <c r="P28">
+        <f>P13/P14</f>
+        <v>16.699635070980811</v>
+      </c>
+      <c r="Q28">
+        <f>Q13/Q14</f>
+        <v>22.084426878527129</v>
+      </c>
+      <c r="R28">
+        <f>R13/R14</f>
+        <v>2.5364607088152558</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28">
+        <f>W13</f>
+        <v>5.5869898600000002E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:Y28" si="25">X13</f>
+        <v>6.0136438600000001E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="25"/>
+        <v>6.3850854100000007E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28:AK28" si="26">AA13</f>
+        <v>7.2358486E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="26"/>
+        <v>9.5454408800000001E-2</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="26"/>
+        <v>0.11826691</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="26"/>
+        <v>9.0490643100000004E-2</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="26"/>
+        <v>0.19841199400000001</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="26"/>
+        <v>0.236924155</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="26"/>
+        <v>9.3055782200000006E-2</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="26"/>
+        <v>0.163626678</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="26"/>
+        <v>0.31080373</v>
+      </c>
+      <c r="AM28">
+        <v>0.11826691</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="V29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29">
+        <f>W11</f>
+        <v>1.1577020899999999E-4</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:Y29" si="27">X11</f>
+        <v>2.82028696E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="27"/>
+        <v>4.7191669999999998E-4</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ref="AA29:AK29" si="28">AA11</f>
+        <v>4.8350674499999998E-4</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="28"/>
+        <v>7.4452043000000005E-4</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="28"/>
+        <v>0.10709256</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="28"/>
+        <v>0.176776454</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="28"/>
+        <v>4.5506451200000005E-4</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="28"/>
+        <v>1.7360844899999998E-2</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="28"/>
+        <v>0.26521310400000003</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="28"/>
+        <v>3.6261888700000001E-2</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="28"/>
+        <v>0.21139392699999998</v>
+      </c>
+      <c r="AM29">
+        <v>0.10709256</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="V30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="1">
+        <f>W16</f>
+        <v>1.0618734349513945E-2</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" ref="X30:Y30" si="29">X16</f>
+        <v>5.3695170681488102E-2</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="29"/>
+        <v>4.5940870548667731E-2</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1">
+        <f t="shared" ref="AA30:AK30" si="30">AA16</f>
+        <v>2.2179033174899103E-2</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="30"/>
+        <v>2.5928241959425658E-2</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="30"/>
+        <v>3.2233003789194727</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1">
+        <f t="shared" si="30"/>
+        <v>0.35386309711350439</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="30"/>
+        <v>2.1556737493443447E-3</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="30"/>
+        <v>0.1652424828392399</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1">
+        <f t="shared" si="30"/>
+        <v>1.5785266475334723</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="30"/>
+        <v>5.9294678177339525E-3</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="30"/>
+        <v>0.57789325310987028</v>
+      </c>
+      <c r="AM30">
+        <v>3.2233003789194727</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="5:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="5:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="38" spans="5:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="5:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="F44">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5">
-        <v>91.722511699999998</v>
-      </c>
-      <c r="X5">
-        <v>19.03890329</v>
-      </c>
-      <c r="Y5">
-        <v>97.349533399999899</v>
-      </c>
-      <c r="AA5">
-        <v>91.742394099999999</v>
-      </c>
-      <c r="AB5">
-        <v>69.650854199999998</v>
-      </c>
-      <c r="AC5">
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>23.3993495399999</v>
+      </c>
+      <c r="F46">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E47">
         <v>60.196532400000002</v>
       </c>
-      <c r="AE5">
-        <v>20.017546969999998</v>
-      </c>
-      <c r="AF5">
-        <v>47.3707286</v>
-      </c>
-      <c r="AG5">
-        <v>95.181129600000006</v>
-      </c>
-      <c r="AI5">
-        <v>119.03836000000001</v>
-      </c>
-      <c r="AJ5">
-        <v>3.2703579599999997</v>
-      </c>
-      <c r="AK5">
-        <v>54.674536900000007</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>10</v>
-      </c>
-      <c r="AA6">
-        <v>5</v>
-      </c>
-      <c r="AB6">
-        <v>5</v>
-      </c>
-      <c r="AC6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>0.5</v>
-      </c>
-      <c r="AJ6">
-        <v>0.5</v>
-      </c>
-      <c r="AK6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>590.62797699999999</v>
-      </c>
-      <c r="E7">
-        <v>17.301410099999899</v>
-      </c>
-      <c r="F7">
-        <v>39.691059699999897</v>
-      </c>
-      <c r="H7">
-        <v>893.52324999999996</v>
-      </c>
-      <c r="I7">
-        <v>795.30009499999994</v>
-      </c>
-      <c r="J7">
-        <v>23.3993495399999</v>
-      </c>
-      <c r="L7">
-        <v>268.49857600000001</v>
-      </c>
-      <c r="M7">
-        <v>226.562769</v>
-      </c>
-      <c r="N7">
-        <v>84.9595822</v>
-      </c>
-      <c r="P7">
-        <v>323.64468799999997</v>
-      </c>
-      <c r="Q7">
-        <v>213.253445</v>
-      </c>
-      <c r="R7">
-        <v>402.28841999999997</v>
-      </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="X7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
-      <c r="AA7">
-        <v>10</v>
-      </c>
-      <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
-      </c>
-      <c r="AE7">
-        <v>10</v>
-      </c>
-      <c r="AF7">
-        <v>10</v>
-      </c>
-      <c r="AG7">
-        <v>10</v>
-      </c>
-      <c r="AI7">
-        <v>10</v>
-      </c>
-      <c r="AJ7">
-        <v>10</v>
-      </c>
-      <c r="AK7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>91.722511699999998</v>
-      </c>
-      <c r="E8">
-        <v>19.03890329</v>
-      </c>
-      <c r="F8">
-        <v>97.349533399999899</v>
-      </c>
-      <c r="H8">
-        <v>91.742394099999999</v>
-      </c>
-      <c r="I8">
-        <v>69.650854199999998</v>
-      </c>
-      <c r="J8">
-        <v>60.196532400000002</v>
-      </c>
-      <c r="L8">
-        <v>20.017546969999998</v>
-      </c>
-      <c r="M8">
-        <v>47.3707286</v>
-      </c>
-      <c r="N8">
-        <v>95.181129600000006</v>
-      </c>
-      <c r="P8">
-        <v>119.03836000000001</v>
-      </c>
-      <c r="Q8">
-        <v>3.2703579599999997</v>
-      </c>
-      <c r="R8">
-        <v>54.674536900000007</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8">
-        <v>1.1577020899999999E-4</v>
-      </c>
-      <c r="X8">
-        <v>2.82028696E-3</v>
-      </c>
-      <c r="Y8">
-        <v>4.7191669999999998E-4</v>
-      </c>
-      <c r="AA8">
-        <v>4.8350674499999998E-4</v>
-      </c>
-      <c r="AB8">
-        <v>7.4452043000000005E-4</v>
-      </c>
-      <c r="AC8">
+      <c r="F47">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>4.0416276500000001E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>4.9699199999999999E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.82E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0.11826691</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51">
         <v>0.10709256</v>
       </c>
-      <c r="AE8">
-        <v>0.176776454</v>
-      </c>
-      <c r="AF8">
-        <v>4.5506451200000005E-4</v>
-      </c>
-      <c r="AG8">
-        <v>1.7360844899999998E-2</v>
-      </c>
-      <c r="AI8">
-        <v>0.26521310400000003</v>
-      </c>
-      <c r="AJ8">
-        <v>3.6261888700000001E-2</v>
-      </c>
-      <c r="AK8">
-        <v>0.21139392699999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>2.3324559600000003E-3</v>
-      </c>
-      <c r="E9">
-        <v>0.11255118</v>
-      </c>
-      <c r="F9">
-        <v>1.34958288E-2</v>
-      </c>
-      <c r="H9">
-        <v>4.0421470300000002E-3</v>
-      </c>
-      <c r="I9">
-        <v>2.0107657000000001E-3</v>
-      </c>
-      <c r="J9">
-        <v>4.0416276500000001E-2</v>
-      </c>
-      <c r="L9">
-        <v>5.8495970000000001E-2</v>
-      </c>
-      <c r="M9">
-        <v>2.5079329800000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.5371309500000003E-2</v>
-      </c>
-      <c r="P9">
-        <v>5.9983531600000001E-2</v>
-      </c>
-      <c r="Q9">
-        <v>4.691737E-2</v>
-      </c>
-      <c r="R9">
-        <v>7.7100548100000003E-3</v>
-      </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9">
-        <v>5.5869898600000002E-2</v>
-      </c>
-      <c r="X9">
-        <v>6.0136438600000001E-2</v>
-      </c>
-      <c r="Y9">
-        <v>6.3850854100000007E-2</v>
-      </c>
-      <c r="AA9">
-        <v>7.2358486E-2</v>
-      </c>
-      <c r="AB9">
-        <v>9.5454408800000001E-2</v>
-      </c>
-      <c r="AC9">
-        <v>0.11826691</v>
-      </c>
-      <c r="AE9">
-        <v>9.0490643100000004E-2</v>
-      </c>
-      <c r="AF9">
-        <v>0.19841199400000001</v>
-      </c>
-      <c r="AG9">
-        <v>0.236924155</v>
-      </c>
-      <c r="AI9">
-        <v>9.3055782200000006E-2</v>
-      </c>
-      <c r="AJ9">
-        <v>0.163626678</v>
-      </c>
-      <c r="AK9">
-        <v>0.31080373</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>6.8580687300000005E-4</v>
-      </c>
-      <c r="E10">
-        <v>2.58230562E-2</v>
-      </c>
-      <c r="F10">
-        <v>2.46635428E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.66899865E-4</v>
-      </c>
-      <c r="I10">
-        <v>4.0717848200000004E-4</v>
-      </c>
-      <c r="J10">
-        <v>4.9699199999999999E-2</v>
-      </c>
-      <c r="L10">
-        <v>4.0529796999999998E-3</v>
-      </c>
-      <c r="M10">
-        <v>5.0588766700000005E-4</v>
-      </c>
-      <c r="N10">
-        <v>1.9884720000000002E-2</v>
-      </c>
-      <c r="P10">
-        <v>3.5919067299999999E-3</v>
-      </c>
-      <c r="Q10">
-        <v>2.1244549499999997E-3</v>
-      </c>
-      <c r="R10">
-        <v>3.0396902199999998E-3</v>
-      </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10">
-        <v>590.62797699999999</v>
-      </c>
-      <c r="X10">
-        <v>17.301410099999899</v>
-      </c>
-      <c r="Y10">
-        <v>39.691059699999897</v>
-      </c>
-      <c r="AA10">
-        <v>893.52324999999996</v>
-      </c>
-      <c r="AB10">
-        <v>795.30009499999994</v>
-      </c>
-      <c r="AC10">
-        <v>23.3993495399999</v>
-      </c>
-      <c r="AE10">
-        <v>268.49857600000001</v>
-      </c>
-      <c r="AF10">
-        <v>226.562769</v>
-      </c>
-      <c r="AG10">
-        <v>84.9595822</v>
-      </c>
-      <c r="AI10">
-        <v>323.64468799999997</v>
-      </c>
-      <c r="AJ10">
-        <v>213.253445</v>
-      </c>
-      <c r="AK10">
-        <v>402.28841999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>5.5869898600000002E-2</v>
-      </c>
-      <c r="E11">
-        <v>6.0136438600000001E-2</v>
-      </c>
-      <c r="F11">
-        <v>6.3850854100000007E-2</v>
-      </c>
-      <c r="H11">
-        <v>7.2358486E-2</v>
-      </c>
-      <c r="I11">
-        <v>9.5454408800000001E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.11826691</v>
-      </c>
-      <c r="L11">
-        <v>9.0490643100000004E-2</v>
-      </c>
-      <c r="M11">
-        <v>0.19841199400000001</v>
-      </c>
-      <c r="N11">
-        <v>0.236924155</v>
-      </c>
-      <c r="P11">
-        <v>9.3055782200000006E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.163626678</v>
-      </c>
-      <c r="R11">
-        <v>0.31080373</v>
-      </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11">
-        <v>6.8580687300000005E-4</v>
-      </c>
-      <c r="X11">
-        <v>2.58230562E-2</v>
-      </c>
-      <c r="Y11">
-        <v>2.46635428E-2</v>
-      </c>
-      <c r="AA11">
-        <v>6.66899865E-4</v>
-      </c>
-      <c r="AB11">
-        <v>4.0717848200000004E-4</v>
-      </c>
-      <c r="AC11">
-        <v>4.9699199999999999E-2</v>
-      </c>
-      <c r="AE11">
-        <v>4.0529796999999998E-3</v>
-      </c>
-      <c r="AF11">
-        <v>5.0588766700000005E-4</v>
-      </c>
-      <c r="AG11">
-        <v>1.9884720000000002E-2</v>
-      </c>
-      <c r="AI11">
-        <v>3.5919067299999999E-3</v>
-      </c>
-      <c r="AJ11">
-        <v>2.1244549499999997E-3</v>
-      </c>
-      <c r="AK11">
-        <v>3.0396902199999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>1.1577020899999999E-4</v>
-      </c>
-      <c r="E12">
-        <v>2.82028696E-3</v>
-      </c>
-      <c r="F12">
-        <v>4.7191669999999998E-4</v>
-      </c>
-      <c r="H12">
-        <v>4.8350674499999998E-4</v>
-      </c>
-      <c r="I12">
-        <v>7.4452043000000005E-4</v>
-      </c>
-      <c r="J12">
-        <v>0.10709256</v>
-      </c>
-      <c r="L12">
-        <v>0.176776454</v>
-      </c>
-      <c r="M12">
-        <v>4.5506451200000005E-4</v>
-      </c>
-      <c r="N12">
-        <v>1.7360844899999998E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.26521310400000003</v>
-      </c>
-      <c r="Q12">
-        <v>3.6261888700000001E-2</v>
-      </c>
-      <c r="R12">
-        <v>0.21139392699999998</v>
-      </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="15">
-        <v>1.0618734349513945E-2</v>
-      </c>
-      <c r="X12" s="15">
-        <v>5.3695170681488102E-2</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>4.5940870548667731E-2</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>2.2179033174899103E-2</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>2.5928241959425658E-2</v>
-      </c>
-      <c r="AC12" s="15">
+      <c r="F51" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52">
         <v>3.2233003789194727</v>
       </c>
-      <c r="AE12" s="15">
-        <v>0.35386309711350439</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>2.1556737493443447E-3</v>
-      </c>
-      <c r="AG12" s="15">
-        <v>0.1652424828392399</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>1.5785266475334723</v>
-      </c>
-      <c r="AJ12" s="15">
-        <v>5.9294678177339525E-3</v>
-      </c>
-      <c r="AK12" s="15">
-        <v>0.57789325310987028</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>1.0618734349513945E-2</v>
-      </c>
-      <c r="E13">
-        <v>5.3695170681488102E-2</v>
-      </c>
-      <c r="F13">
-        <v>4.5940870548667731E-2</v>
-      </c>
-      <c r="H13">
-        <v>2.2179033174899103E-2</v>
-      </c>
-      <c r="I13">
-        <v>2.5928241959425658E-2</v>
-      </c>
-      <c r="J13">
-        <v>3.2233003789194727</v>
-      </c>
-      <c r="L13">
-        <v>0.35386309711350439</v>
-      </c>
-      <c r="M13">
-        <v>2.1556737493443447E-3</v>
-      </c>
-      <c r="N13">
-        <v>0.1652424828392399</v>
-      </c>
-      <c r="P13">
-        <v>1.5785266475334723</v>
-      </c>
-      <c r="Q13">
-        <v>5.9294678177339525E-3</v>
-      </c>
-      <c r="R13">
-        <v>0.57789325310987028</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="W16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <f>D7*D9</f>
-        <v>1.377613745096393</v>
-      </c>
-      <c r="E18">
-        <f>E7*E9</f>
-        <v>1.9472941224189066</v>
-      </c>
-      <c r="F18">
-        <f>F7*F9</f>
-        <v>0.53566374660177796</v>
-      </c>
-      <c r="H18">
-        <f>H7*H9</f>
-        <v>3.6117523512234473</v>
-      </c>
-      <c r="I18">
-        <f>I7*I9</f>
-        <v>1.5991621522327415</v>
-      </c>
-      <c r="J18">
-        <f>J7*J9</f>
-        <v>0.9457145809287838</v>
-      </c>
-      <c r="L18">
-        <f>L7*L9</f>
-        <v>15.706084646738722</v>
-      </c>
-      <c r="M18">
-        <f>M7*M9</f>
-        <v>5.6820424041522166</v>
-      </c>
-      <c r="N18">
-        <f>N7*N9</f>
-        <v>3.005131676986891</v>
-      </c>
-      <c r="P18">
-        <f>P7*P9</f>
-        <v>19.413351369820141</v>
-      </c>
-      <c r="Q18">
-        <f>Q7*Q9</f>
-        <v>10.00529078283965</v>
-      </c>
-      <c r="R18">
-        <f>R7*R9</f>
-        <v>3.1016657676283002</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18">
-        <f>W6</f>
-        <v>10</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ref="X18:Z18" si="0">X6</f>
-        <v>10</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ref="AA18:AK18" si="1">AA6</f>
-        <v>5</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <f>D7*D10</f>
-        <v>0.40505672601268594</v>
-      </c>
-      <c r="E19">
-        <f>E7*E10</f>
-        <v>0.44677528535154498</v>
-      </c>
-      <c r="F19">
-        <f>F7*F10</f>
-        <v>0.9789221496883026</v>
-      </c>
-      <c r="H19">
-        <f>H7*H10</f>
-        <v>0.59589053479936127</v>
-      </c>
-      <c r="I19">
-        <f>I7*I10</f>
-        <v>0.32382908541655581</v>
-      </c>
-      <c r="J19">
-        <f>J7*J10</f>
-        <v>1.162928952658363</v>
-      </c>
-      <c r="L19">
-        <f>L7*L10</f>
-        <v>1.0882192780069071</v>
-      </c>
-      <c r="M19">
-        <f>M7*M10</f>
-        <v>0.11461531063846994</v>
-      </c>
-      <c r="N19">
-        <f>N7*N10</f>
-        <v>1.6893975033639841</v>
-      </c>
-      <c r="P19">
-        <f>P7*P10</f>
-        <v>1.16250153295595</v>
-      </c>
-      <c r="Q19">
-        <f>Q7*Q10</f>
-        <v>0.45304733683480269</v>
-      </c>
-      <c r="R19">
-        <f>R7*R10</f>
-        <v>1.2228321758932523</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19">
-        <f>W7</f>
-        <v>10</v>
-      </c>
-      <c r="X19">
-        <f t="shared" ref="X19:Z19" si="2">X7</f>
-        <v>10</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" ref="AA19:AK19" si="3">AA7</f>
-        <v>10</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W20">
-        <f>W10</f>
-        <v>590.62797699999999</v>
-      </c>
-      <c r="X20">
-        <f t="shared" ref="X20:Z20" si="4">X10</f>
-        <v>17.301410099999899</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="4"/>
-        <v>39.691059699999897</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ref="AA20:AK20" si="5">AA10</f>
-        <v>893.52324999999996</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="5"/>
-        <v>795.30009499999994</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="5"/>
-        <v>23.3993495399999</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="5"/>
-        <v>268.49857600000001</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="5"/>
-        <v>226.562769</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="5"/>
-        <v>84.9595822</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="5"/>
-        <v>323.64468799999997</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="5"/>
-        <v>213.253445</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="5"/>
-        <v>402.28841999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <f>D8*D12</f>
-        <v>1.0618734349513943E-2</v>
-      </c>
-      <c r="E21">
-        <f>E8*E12</f>
-        <v>5.3695170681488102E-2</v>
-      </c>
-      <c r="F21">
-        <f>F8*F12</f>
-        <v>4.5940870548667731E-2</v>
-      </c>
-      <c r="H21">
-        <f>H8*H12</f>
-        <v>4.4358066349798199E-2</v>
-      </c>
-      <c r="I21">
-        <f>I8*I12</f>
-        <v>5.1856483918851309E-2</v>
-      </c>
-      <c r="J21">
-        <f>J8*J12</f>
-        <v>6.4466007578389446</v>
-      </c>
-      <c r="L21">
-        <f>L8*L12</f>
-        <v>3.5386309711350439</v>
-      </c>
-      <c r="M21">
-        <f>M8*M12</f>
-        <v>2.1556737493443445E-2</v>
-      </c>
-      <c r="N21">
-        <f>N8*N12</f>
-        <v>1.652424828392399</v>
-      </c>
-      <c r="P21">
-        <f>P8*P12</f>
-        <v>31.570532950669445</v>
-      </c>
-      <c r="Q21">
-        <f>Q8*Q12</f>
-        <v>0.11858935635467904</v>
-      </c>
-      <c r="R21">
-        <f>R8*R12</f>
-        <v>11.557865062197406</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W21">
-        <f>W5</f>
-        <v>91.722511699999998</v>
-      </c>
-      <c r="X21">
-        <f t="shared" ref="X21:Z21" si="6">X5</f>
-        <v>19.03890329</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="6"/>
-        <v>97.349533399999899</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" ref="AA21:AK21" si="7">AA5</f>
-        <v>91.742394099999999</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="7"/>
-        <v>69.650854199999998</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="7"/>
-        <v>60.196532400000002</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="7"/>
-        <v>20.017546969999998</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="7"/>
-        <v>47.3707286</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="7"/>
-        <v>95.181129600000006</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="7"/>
-        <v>119.03836000000001</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="7"/>
-        <v>3.2703579599999997</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="7"/>
-        <v>54.674536900000007</v>
-      </c>
-    </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22">
-        <f>W4</f>
-        <v>2.3324559600000003E-3</v>
-      </c>
-      <c r="X22">
-        <f t="shared" ref="X22:Z22" si="8">X4</f>
-        <v>0.11255118</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="8"/>
-        <v>1.34958288E-2</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" ref="AA22:AK22" si="9">AA4</f>
-        <v>4.0421470300000002E-3</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="9"/>
-        <v>2.0107657000000001E-3</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="9"/>
-        <v>4.0416276500000001E-2</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="9"/>
-        <v>5.8495970000000001E-2</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="9"/>
-        <v>2.5079329800000001E-2</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="9"/>
-        <v>3.5371309500000003E-2</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="9"/>
-        <v>5.9983531600000001E-2</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="9"/>
-        <v>4.691737E-2</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="9"/>
-        <v>7.7100548100000003E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <f>D11/D9</f>
-        <v>23.953249089427608</v>
-      </c>
-      <c r="E23">
-        <f>E11/E9</f>
-        <v>0.53430304862196909</v>
-      </c>
-      <c r="F23">
-        <f>F11/F9</f>
-        <v>4.7311547179673772</v>
-      </c>
-      <c r="H23">
-        <f>H11/H9</f>
-        <v>17.901002972670195</v>
-      </c>
-      <c r="I23">
-        <f>I11/I9</f>
-        <v>47.471671512996267</v>
-      </c>
-      <c r="J23">
-        <f>J11/J9</f>
-        <v>2.9262198362088108</v>
-      </c>
-      <c r="L23">
-        <f>L11/L9</f>
-        <v>1.5469551680226861</v>
-      </c>
-      <c r="M23">
-        <f>M11/M9</f>
-        <v>7.9113754467234605</v>
-      </c>
-      <c r="N23">
-        <f>N11/N9</f>
-        <v>6.6982014052943102</v>
-      </c>
-      <c r="P23">
-        <f>P11/P9</f>
-        <v>1.5513555090510878</v>
-      </c>
-      <c r="Q23">
-        <f>Q11/Q9</f>
-        <v>3.487550090723329</v>
-      </c>
-      <c r="R23">
-        <f>R11/R9</f>
-        <v>40.311481261700656</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23">
-        <f>W11</f>
-        <v>6.8580687300000005E-4</v>
-      </c>
-      <c r="X23">
-        <f t="shared" ref="X23:Z23" si="10">X11</f>
-        <v>2.58230562E-2</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="10"/>
-        <v>2.46635428E-2</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" ref="AA23:AK23" si="11">AA11</f>
-        <v>6.66899865E-4</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="11"/>
-        <v>4.0717848200000004E-4</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
-        <v>4.9699199999999999E-2</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="11"/>
-        <v>4.0529796999999998E-3</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="11"/>
-        <v>5.0588766700000005E-4</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="11"/>
-        <v>1.9884720000000002E-2</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="11"/>
-        <v>3.5919067299999999E-3</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="11"/>
-        <v>2.1244549499999997E-3</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="11"/>
-        <v>3.0396902199999998E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <f>D9/D10</f>
-        <v>3.4010390560784014</v>
-      </c>
-      <c r="E24">
-        <f>E9/E10</f>
-        <v>4.3585538105284378</v>
-      </c>
-      <c r="F24">
-        <f>F9/F10</f>
-        <v>0.54719749345986091</v>
-      </c>
-      <c r="H24">
-        <f>H9/H10</f>
-        <v>6.0611003872372953</v>
-      </c>
-      <c r="I24">
-        <f>I9/I10</f>
-        <v>4.93829067322865</v>
-      </c>
-      <c r="J24">
-        <f>J9/J10</f>
-        <v>0.81321784857703949</v>
-      </c>
-      <c r="L24">
-        <f>L9/L10</f>
-        <v>14.432830739320012</v>
-      </c>
-      <c r="M24">
-        <f>M9/M10</f>
-        <v>49.57489861084121</v>
-      </c>
-      <c r="N24">
-        <f>N9/N10</f>
-        <v>1.778818585325818</v>
-      </c>
-      <c r="P24">
-        <f>P9/P10</f>
-        <v>16.699635070980811</v>
-      </c>
-      <c r="Q24">
-        <f>Q9/Q10</f>
-        <v>22.084426878527129</v>
-      </c>
-      <c r="R24">
-        <f>R9/R10</f>
-        <v>2.5364607088152558</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W24">
-        <f>W9</f>
-        <v>5.5869898600000002E-2</v>
-      </c>
-      <c r="X24">
-        <f t="shared" ref="X24:Z24" si="12">X9</f>
-        <v>6.0136438600000001E-2</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="12"/>
-        <v>6.3850854100000007E-2</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" ref="AA24:AK24" si="13">AA9</f>
-        <v>7.2358486E-2</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="13"/>
-        <v>9.5454408800000001E-2</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="13"/>
-        <v>0.11826691</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="13"/>
-        <v>9.0490643100000004E-2</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="13"/>
-        <v>0.19841199400000001</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="13"/>
-        <v>0.236924155</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="13"/>
-        <v>9.3055782200000006E-2</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="13"/>
-        <v>0.163626678</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="13"/>
-        <v>0.31080373</v>
-      </c>
-    </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="V25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25">
-        <f>W8</f>
-        <v>1.1577020899999999E-4</v>
-      </c>
-      <c r="X25">
-        <f t="shared" ref="X25:Z25" si="14">X8</f>
-        <v>2.82028696E-3</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="14"/>
-        <v>4.7191669999999998E-4</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" ref="AA25:AK25" si="15">AA8</f>
-        <v>4.8350674499999998E-4</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="15"/>
-        <v>7.4452043000000005E-4</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="15"/>
-        <v>0.10709256</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="15"/>
-        <v>0.176776454</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="15"/>
-        <v>4.5506451200000005E-4</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="15"/>
-        <v>1.7360844899999998E-2</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="15"/>
-        <v>0.26521310400000003</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="15"/>
-        <v>3.6261888700000001E-2</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="15"/>
-        <v>0.21139392699999998</v>
-      </c>
-    </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="V26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W26" s="1">
-        <f>W12</f>
-        <v>1.0618734349513945E-2</v>
-      </c>
-      <c r="X26" s="1">
-        <f t="shared" ref="X26:Z26" si="16">X12</f>
-        <v>5.3695170681488102E-2</v>
-      </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="16"/>
-        <v>4.5940870548667731E-2</v>
-      </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
-        <f t="shared" ref="AA26:AK26" si="17">AA12</f>
-        <v>2.2179033174899103E-2</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="17"/>
-        <v>2.5928241959425658E-2</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="17"/>
-        <v>3.2233003789194727</v>
-      </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1">
-        <f t="shared" si="17"/>
-        <v>0.35386309711350439</v>
-      </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="17"/>
-        <v>2.1556737493443447E-3</v>
-      </c>
-      <c r="AG26" s="1">
-        <f t="shared" si="17"/>
-        <v>0.1652424828392399</v>
-      </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1">
-        <f t="shared" si="17"/>
-        <v>1.5785266475334723</v>
-      </c>
-      <c r="AJ26" s="1">
-        <f t="shared" si="17"/>
-        <v>5.9294678177339525E-3</v>
-      </c>
-      <c r="AK26" s="1">
-        <f t="shared" si="17"/>
-        <v>0.57789325310987028</v>
+      <c r="F52" s="1">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="U5:U16"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2873,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DD1D05-BDC6-9D4D-BBF5-647F60E1AA57}">
   <dimension ref="B3:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3852,6 +4502,12 @@
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
@@ -3868,7 +4524,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3879,7 +4535,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
         <v>33</v>
       </c>
@@ -3887,8 +4543,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
@@ -3896,8 +4552,8 @@
         <v>206.74886099999998</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="12"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
@@ -3905,8 +4561,8 @@
         <v>4.8587871900000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3916,8 +4572,8 @@
         <v>1.7122892300000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>37</v>
       </c>
@@ -3925,8 +4581,8 @@
         <v>2.4059836000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
@@ -3934,8 +4590,8 @@
         <v>3.4708944399999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="15"/>
       <c r="C38" s="2" t="s">
         <v>39</v>
       </c>
@@ -3943,79 +4599,87 @@
         <v>8.9952991400000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E39">
         <v>0.14568748100000001</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f>E38*E31*E34/E32</f>
+        <v>0.14568748077216673</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="F40">
+        <f>E38*E42*E34/(E32*5)</f>
+        <v>2.8833405119442476E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <f>E31+E32/1.91/602</f>
+        <v>10.026091040336748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <f>E41-E32*5/1.91/602</f>
+        <v>9.895635838653007</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C43" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44">
-        <f>E33*E35</f>
-        <v>3.5401384800506701</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45">
-        <f>E33*E36</f>
-        <v>0.49743436888467957</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47">
-        <f>E34*E38</f>
-        <v>0.43706244231650021</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49">
-        <f>E37/E35</f>
-        <v>2.0270491568763762</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50">
-        <f>E35/E36</f>
-        <v>7.1167951020115012</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E43">
+        <f>E32*5</f>
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B35:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4023,27 +4687,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDA1717-8CEF-8248-9761-CC763A8ABCDB}">
-  <dimension ref="B1:AK24"/>
+  <dimension ref="B1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" ht="24" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="17">
+        <v>1.91</v>
+      </c>
       <c r="V1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:37" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
       <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4081,1149 +4770,1453 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="2:37" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3" s="19"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W4" t="s">
         <v>23</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y4" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB4" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC4" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE4" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF4" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG4" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ4" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>6.3631764400000007E-3</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <v>1.7122892300000001E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <v>4.3717180299999998E-2</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4">
+      <c r="Z5" s="2"/>
+      <c r="AA5">
         <v>2.6084818899999996E-3</v>
       </c>
-      <c r="AB4">
+      <c r="AB5">
         <v>1.6035425999999998E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AC5">
         <v>2.0258629900000002E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AE5">
         <v>1.35432404E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AF5">
         <v>3.39750682E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AG5">
         <v>1.4683021999999999E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AI5">
         <v>1.7777626500000001E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ5">
         <v>5.1577990000000004E-2</v>
       </c>
-      <c r="AK4">
+      <c r="AK5">
         <v>2.99314504E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="2:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="H5">
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="3" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W5">
+      <c r="W6">
         <v>168.763407</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <v>4.8587871900000001</v>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <v>97.3808212</v>
       </c>
-      <c r="AA5">
+      <c r="AA6">
         <v>262.03707399999996</v>
       </c>
-      <c r="AB5">
+      <c r="AB6">
         <v>42.251951300000002</v>
       </c>
-      <c r="AC5">
+      <c r="AC6">
         <v>10.9411352</v>
       </c>
-      <c r="AE5">
+      <c r="AE6">
         <v>63.033687500000006</v>
       </c>
-      <c r="AF5">
+      <c r="AF6">
         <v>34.138119099999997</v>
       </c>
-      <c r="AG5">
+      <c r="AG6">
         <v>9.7676786700000005</v>
       </c>
-      <c r="AI5">
+      <c r="AI6">
         <v>4.3818634800000007</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ6">
         <v>36.394169079999998</v>
       </c>
-      <c r="AK5">
+      <c r="AK6">
         <v>88.643714399999993</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>35.803656199999999</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>44.1259297</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>47.7617245</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>47.6001227</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <v>62.301634500000006</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>30</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>19.605595600000001</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>30</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>23.643725500000002</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="3" t="s">
+      <c r="U7" s="13"/>
+      <c r="V7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <v>10</v>
-      </c>
-      <c r="AA6">
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="AB6">
+      <c r="AB7">
         <v>5</v>
       </c>
-      <c r="AC6">
+      <c r="AC7">
         <v>5</v>
       </c>
-      <c r="AE6">
+      <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AF6">
+      <c r="AF7">
         <v>1</v>
       </c>
-      <c r="AG6">
+      <c r="AG7">
         <v>1</v>
       </c>
-      <c r="AI6">
+      <c r="AI7">
         <v>0.5</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ7">
         <v>0.5</v>
       </c>
-      <c r="AK6">
+      <c r="AK7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <f>D6+D7/$K$1/602</f>
+        <v>10.031138487937243</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:F8" si="0">E6+E7/$K$1/602</f>
+        <v>10.026091040336748</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10.038376380389973</v>
+      </c>
+      <c r="H8">
+        <f>H6+H7/$K$1/602</f>
+        <v>5.0415384360160722</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="1">I6+I7/$K$1/602</f>
+        <v>5.0413978907133288</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="2">J6+J7/$K$1/602</f>
+        <v>5.0260910403367483</v>
+      </c>
+      <c r="L8">
+        <f>L6+L7/$K$1/602</f>
+        <v>1.0086970134455828</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="3">M6+M7/$K$1/602</f>
+        <v>1.0541838152928285</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="4">N6+N7/$K$1/602</f>
+        <v>1.0260910403367483</v>
+      </c>
+      <c r="P8">
+        <f>P6+P7/$K$1/602</f>
+        <v>0.51705101285418587</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="5">Q6+Q7/$K$1/602</f>
+        <v>0.52609104033674836</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="6">R6+R7/$K$1/602</f>
+        <v>0.52056297985771682</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f>D8-D12/$K$1/602</f>
+        <v>9.8131690723765459</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:F9" si="7">E8-E12/$K$1/602</f>
+        <v>9.895635838653007</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="7"/>
+        <v>9.961623619610025</v>
+      </c>
+      <c r="H9">
+        <f>H8-H12/$K$1/602</f>
+        <v>4.7507693839035676</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="8">I8-I12/$K$1/602</f>
+        <v>4.834408437146684</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="9">J8-J12/$K$1/602</f>
+        <v>4.9739089596632517</v>
+      </c>
+      <c r="L9">
+        <f>L8-L12/$K$1/602</f>
+        <v>0.94781791932650328</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9" si="10">M8-M12/$K$1/602</f>
+        <v>0.78326473882868619</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="11">N8-N12/$K$1/602</f>
+        <v>0.97390895966325153</v>
+      </c>
+      <c r="P9">
+        <f>P8-P12/$K$1/602</f>
+        <v>0.39769392287488475</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="12">Q8-Q12/$K$1/602</f>
+        <v>0.39563583865300656</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="13">R8-R12/$K$1/602</f>
+        <v>0.47943702014228312</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>1035.3186499999999</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>206.74886099999998</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>56.859645399999899</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>4659.31754</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>450.98238199999895</v>
       </c>
-      <c r="J7">
+      <c r="J10">
         <v>112.74255900000001</v>
       </c>
-      <c r="L7">
+      <c r="L10">
         <v>1000</v>
       </c>
-      <c r="M7">
+      <c r="M10">
         <v>471.35050999999999</v>
       </c>
-      <c r="N7">
+      <c r="N10">
         <v>269.90403099999997</v>
       </c>
-      <c r="P7">
+      <c r="P10">
         <v>1166.67848</v>
       </c>
-      <c r="Q7">
+      <c r="Q10">
         <v>300</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>187.73391900000001</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="3" t="s">
+      <c r="U10" s="13"/>
+      <c r="V10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W7">
+      <c r="W10">
         <v>35.803656199999999</v>
       </c>
-      <c r="X7">
+      <c r="X10">
         <v>30</v>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <v>44.1259297</v>
       </c>
-      <c r="AA7">
+      <c r="AA10">
         <v>47.7617245</v>
       </c>
-      <c r="AB7">
+      <c r="AB10">
         <v>47.6001227</v>
       </c>
-      <c r="AC7">
+      <c r="AC10">
         <v>30</v>
       </c>
-      <c r="AE7">
-        <v>10</v>
-      </c>
-      <c r="AF7">
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
         <v>62.301634500000006</v>
       </c>
-      <c r="AG7">
+      <c r="AG10">
         <v>30</v>
       </c>
-      <c r="AI7">
+      <c r="AI10">
         <v>19.605595600000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ10">
         <v>30</v>
       </c>
-      <c r="AK7">
+      <c r="AK10">
         <v>23.643725500000002</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>168.763407</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>4.8587871900000001</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>97.3808212</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>262.03707399999996</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>42.251951300000002</v>
       </c>
-      <c r="J8">
+      <c r="J11">
         <v>10.9411352</v>
       </c>
-      <c r="L8">
+      <c r="L11">
         <v>63.033687500000006</v>
       </c>
-      <c r="M8">
+      <c r="M11">
         <v>34.138119099999997</v>
       </c>
-      <c r="N8">
+      <c r="N11">
         <v>9.7676786700000005</v>
       </c>
-      <c r="P8">
+      <c r="P11">
         <v>4.3818634800000007</v>
       </c>
-      <c r="Q8">
+      <c r="Q11">
         <v>36.394169079999998</v>
       </c>
-      <c r="R8">
+      <c r="R11">
         <v>88.643714399999993</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="3" t="s">
+      <c r="U11" s="13"/>
+      <c r="V11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W8">
+      <c r="W11">
         <v>0.473492776</v>
       </c>
-      <c r="X8">
+      <c r="X11">
         <v>8.9952991400000001E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <v>2.25481462E-4</v>
       </c>
-      <c r="AA8">
+      <c r="AA11">
         <v>3.7600742500000003E-3</v>
       </c>
-      <c r="AB8">
+      <c r="AB11">
         <v>2.2001522499999999E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AC11">
         <v>5.6561625999999995E-4</v>
       </c>
-      <c r="AE8">
+      <c r="AE11">
         <v>3.29847712E-4</v>
       </c>
-      <c r="AF8">
+      <c r="AF11">
         <v>1.46595008E-3</v>
       </c>
-      <c r="AG8">
+      <c r="AG11">
         <v>1.7439659999999999E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AI11">
         <v>6.6825837600000007E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ11">
         <v>1.25937111E-3</v>
       </c>
-      <c r="AK8">
+      <c r="AK11">
         <v>1.7722999299999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <f>D7*7</f>
+        <v>250.62559339999999</v>
+      </c>
+      <c r="E12">
+        <f>E7*5</f>
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <f>F7*2</f>
+        <v>88.251859400000001</v>
+      </c>
+      <c r="H12">
+        <f>H7*7</f>
+        <v>334.33207149999998</v>
+      </c>
+      <c r="I12">
+        <f>I7*5</f>
+        <v>238.00061349999999</v>
+      </c>
+      <c r="J12">
+        <f>J7*2</f>
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <f>L7*7</f>
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <f>M7*5</f>
+        <v>311.5081725</v>
+      </c>
+      <c r="N12">
+        <f>N7*2</f>
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <f>P7*7</f>
+        <v>137.23916919999999</v>
+      </c>
+      <c r="Q12">
+        <f>Q7*5</f>
+        <v>150</v>
+      </c>
+      <c r="R12">
+        <f>R7*2</f>
+        <v>47.287451000000004</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:37" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <v>6.3631764400000007E-3</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>1.7122892300000001E-2</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>4.3717180299999998E-2</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>2.6084818899999996E-3</v>
       </c>
-      <c r="I9">
+      <c r="I13">
         <v>1.6035425999999998E-2</v>
       </c>
-      <c r="J9">
+      <c r="J13">
         <v>2.0258629900000002E-2</v>
       </c>
-      <c r="L9">
+      <c r="L13">
         <v>1.35432404E-2</v>
       </c>
-      <c r="M9">
+      <c r="M13">
         <v>3.39750682E-2</v>
       </c>
-      <c r="N9">
+      <c r="N13">
         <v>1.4683021999999999E-2</v>
       </c>
-      <c r="P9">
+      <c r="P13">
         <v>1.7777626500000001E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q13">
         <v>5.1577990000000004E-2</v>
       </c>
-      <c r="R9">
+      <c r="R13">
         <v>2.99314504E-2</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="3" t="s">
+      <c r="U13" s="13"/>
+      <c r="V13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W9">
+      <c r="W13">
         <v>2.2788991599999999E-2</v>
       </c>
-      <c r="X9">
+      <c r="X13">
         <v>3.4708944399999997E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <v>4.3409256899999998E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AA13">
         <v>2.2084067899999997E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AB13">
         <v>3.2365933800000003E-2</v>
       </c>
-      <c r="AC9">
+      <c r="AC13">
         <v>6.9639805599999993E-2</v>
       </c>
-      <c r="AE9">
+      <c r="AE13">
         <v>8.0699286000000009E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AF13">
         <v>3.0456974599999999E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AG13">
         <v>0.103733193</v>
       </c>
-      <c r="AI9">
+      <c r="AI13">
         <v>5.4353217600000003E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ13">
         <v>5.7420763200000002E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AK13">
         <v>0.13301597700000001</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="2" t="s">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>7.3919075900000003E-4</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>2.4059836000000002E-3</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>3.0066335900000001E-2</v>
       </c>
-      <c r="H10">
+      <c r="H14">
         <v>1.4118549899999998E-4</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>8.6090379200000008E-4</v>
       </c>
-      <c r="J10">
+      <c r="J14">
         <v>1.4221582300000001E-2</v>
       </c>
-      <c r="L10">
+      <c r="L14">
         <v>1.55455886E-3</v>
       </c>
-      <c r="M10">
+      <c r="M14">
         <v>6.6607400899999997E-4</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <v>5.81885465E-3</v>
       </c>
-      <c r="P10">
+      <c r="P14">
         <v>7.5277588600000005E-4</v>
       </c>
-      <c r="Q10">
+      <c r="Q14">
         <v>1.5273115499999999E-3</v>
       </c>
-      <c r="R10">
+      <c r="R14">
         <v>9.9167365000000004E-3</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="3" t="s">
+      <c r="U14" s="13"/>
+      <c r="V14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W10">
+      <c r="W14">
         <v>1035.3186499999999</v>
       </c>
-      <c r="X10">
+      <c r="X14">
         <v>206.74886099999998</v>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <v>56.859645399999899</v>
       </c>
-      <c r="AA10">
+      <c r="AA14">
         <v>4659.31754</v>
       </c>
-      <c r="AB10">
+      <c r="AB14">
         <v>450.98238199999895</v>
       </c>
-      <c r="AC10">
+      <c r="AC14">
         <v>112.74255900000001</v>
       </c>
-      <c r="AE10">
+      <c r="AE14">
         <v>1000</v>
       </c>
-      <c r="AF10">
+      <c r="AF14">
         <v>471.35050999999999</v>
       </c>
-      <c r="AG10">
+      <c r="AG14">
         <v>269.90403099999997</v>
       </c>
-      <c r="AI10">
+      <c r="AI14">
         <v>1166.67848</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ14">
         <v>300</v>
       </c>
-      <c r="AK10">
+      <c r="AK14">
         <v>187.73391900000001</v>
       </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="2" t="s">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>2.2788991599999999E-2</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>3.4708944399999997E-2</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>4.3409256899999998E-2</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>2.2084067899999997E-2</v>
       </c>
-      <c r="I11">
+      <c r="I15">
         <v>3.2365933800000003E-2</v>
       </c>
-      <c r="J11">
+      <c r="J15">
         <v>6.9639805599999993E-2</v>
       </c>
-      <c r="L11">
+      <c r="L15">
         <v>8.0699286000000009E-2</v>
       </c>
-      <c r="M11">
+      <c r="M15">
         <v>3.0456974599999999E-2</v>
       </c>
-      <c r="N11">
+      <c r="N15">
         <v>0.103733193</v>
       </c>
-      <c r="P11">
+      <c r="P15">
         <v>5.4353217600000003E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q15">
         <v>5.7420763200000002E-2</v>
       </c>
-      <c r="R11">
+      <c r="R15">
         <v>0.13301597700000001</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="3" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W11">
+      <c r="W15">
         <v>7.3919075900000003E-4</v>
       </c>
-      <c r="X11">
+      <c r="X15">
         <v>2.4059836000000002E-3</v>
       </c>
-      <c r="Y11">
+      <c r="Y15">
         <v>3.0066335900000001E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AA15">
         <v>1.4118549899999998E-4</v>
       </c>
-      <c r="AB11">
+      <c r="AB15">
         <v>8.6090379200000008E-4</v>
       </c>
-      <c r="AC11">
+      <c r="AC15">
         <v>1.4221582300000001E-2</v>
       </c>
-      <c r="AE11">
+      <c r="AE15">
         <v>1.55455886E-3</v>
       </c>
-      <c r="AF11">
+      <c r="AF15">
         <v>6.6607400899999997E-4</v>
       </c>
-      <c r="AG11">
+      <c r="AG15">
         <v>5.81885465E-3</v>
       </c>
-      <c r="AI11">
+      <c r="AI15">
         <v>7.5277588600000005E-4</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ15">
         <v>1.5273115499999999E-3</v>
       </c>
-      <c r="AK11">
+      <c r="AK15">
         <v>9.9167365000000004E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="2" t="s">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>0.473492776</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>8.9952991400000001E-2</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>2.25481462E-4</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>3.7600742500000003E-3</v>
       </c>
-      <c r="I12">
+      <c r="I16">
         <v>2.2001522499999999E-2</v>
       </c>
-      <c r="J12">
+      <c r="J16">
         <v>5.6561625999999995E-4</v>
       </c>
-      <c r="L12">
+      <c r="L16">
         <v>3.29847712E-4</v>
       </c>
-      <c r="M12">
+      <c r="M16">
         <v>1.46595008E-3</v>
       </c>
-      <c r="N12">
+      <c r="N16">
         <v>1.7439659999999999E-2</v>
       </c>
-      <c r="P12">
+      <c r="P16">
         <v>6.6825837600000007E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q16">
         <v>1.25937111E-3</v>
       </c>
-      <c r="R12">
+      <c r="R16">
         <v>1.7722999299999998E-4</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="3" t="s">
+      <c r="U16" s="13"/>
+      <c r="V16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W12">
+      <c r="W16">
         <v>22.3</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X16" s="4">
         <v>0.14568748100000001</v>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA12">
+      <c r="AA16">
         <v>0.1</v>
       </c>
-      <c r="AB12">
+      <c r="AB16">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="AC12">
-        <v>0.1</v>
-      </c>
-      <c r="AE12">
+      <c r="AC16">
+        <v>1E-3</v>
+      </c>
+      <c r="AE16">
         <v>2.0790000000000001E-3</v>
       </c>
-      <c r="AF12">
+      <c r="AF16">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AG12">
+      <c r="AG16">
         <v>5.6699999999999997E-3</v>
       </c>
-      <c r="AI12">
+      <c r="AI16">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ16">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="AK12">
-        <v>3.7499999999999997E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>22.3</v>
-      </c>
-      <c r="E13">
-        <v>0.14568748100000001</v>
-      </c>
-      <c r="F13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
-      <c r="L13">
-        <v>2.0790000000000001E-3</v>
-      </c>
-      <c r="M13">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="N13">
-        <v>5.6699999999999997E-3</v>
-      </c>
-      <c r="P13">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q13">
-        <v>7.6000000000000004E-4</v>
-      </c>
-      <c r="R13">
-        <v>3.7499999999999997E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="AK16">
+        <v>3.3E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <f>D6*D11/D7*D16</f>
+        <v>22.318462008817924</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:F17" si="14">E6*E11/E7*E16</f>
+        <v>0.14568748077216673</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="14"/>
+        <v>4.9761149700912922E-3</v>
+      </c>
+      <c r="H17">
+        <f>H6*H11/H7*H16</f>
+        <v>0.10314523447459946</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:J17" si="15">I6*I11/I7*I16</f>
+        <v>9.7647569424842484E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="15"/>
+        <v>1.0314139953297252E-3</v>
+      </c>
+      <c r="L17">
+        <f>L6*L11/L7*L16</f>
+        <v>2.0791517600798003E-3</v>
+      </c>
+      <c r="M17">
+        <f>M6*M11/M7*M16</f>
+        <v>8.0326589867709688E-4</v>
+      </c>
+      <c r="N17">
+        <f>N6*N11/N7*N16</f>
+        <v>5.67816649980174E-3</v>
+      </c>
+      <c r="P17">
+        <f>P6*P11/P7*P16</f>
+        <v>7.4678092743035796E-3</v>
+      </c>
+      <c r="Q17">
+        <f>Q6*Q11/Q7*Q16</f>
+        <v>7.638960851967879E-4</v>
+      </c>
+      <c r="R17">
+        <f>R6*R11/R7*R16</f>
+        <v>3.3223031798871959E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <f>D9*D11/D12*D16</f>
+        <v>3.1287834446848999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:F18" si="16">E9*E11/E12*E16</f>
+        <v>2.883340511944248E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="16"/>
+        <v>2.4785092209978223E-3</v>
+      </c>
+      <c r="H18">
+        <f>H9*H11/H12*H16</f>
+        <v>1.4000549201070913E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:J18" si="17">I9*I11/I12*I16</f>
+        <v>1.8882729339773006E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="17"/>
+        <v>5.1301593124925915E-4</v>
+      </c>
+      <c r="L18">
+        <f>L9*L11/L12*L16</f>
+        <v>2.8152247074326764E-4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:N18" si="18">M9*M11/M12*M16</f>
+        <v>1.2583397086746124E-4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="18"/>
+        <v>2.7650086143083193E-3</v>
+      </c>
+      <c r="P18">
+        <f>P9*P11/P12*P16</f>
+        <v>8.4854353302263926E-4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:R18" si="19">Q9*Q11/Q12*Q16</f>
+        <v>1.208898673242319E-4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="19"/>
+        <v>1.5928351365743486E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18">
-        <f>D7*D9</f>
+      <c r="D22">
+        <f>D10*D13</f>
         <v>6.5879152415726061</v>
       </c>
-      <c r="E18">
-        <f>E7*E9</f>
+      <c r="E22">
+        <f>E10*E13</f>
         <v>3.5401384800506701</v>
       </c>
-      <c r="F18">
-        <f>F7*F9</f>
+      <c r="F22">
+        <f>F10*F13</f>
         <v>2.4857433697458613</v>
       </c>
-      <c r="H18">
-        <f>H7*H9</f>
+      <c r="H22">
+        <f>H10*H13</f>
         <v>12.153745422849349</v>
       </c>
-      <c r="I18">
-        <f>I7*I9</f>
+      <c r="I22">
+        <f>I10*I13</f>
         <v>7.2316946138647147</v>
       </c>
-      <c r="J18">
-        <f>J7*J9</f>
+      <c r="J22">
+        <f>J10*J13</f>
         <v>2.2840097767599148</v>
       </c>
-      <c r="L18">
-        <f>L7*L9</f>
+      <c r="L22">
+        <f>L10*L13</f>
         <v>13.5432404</v>
       </c>
-      <c r="M18">
-        <f>M7*M9</f>
+      <c r="M22">
+        <f>M10*M13</f>
         <v>16.014165723354783</v>
       </c>
-      <c r="N18">
-        <f>N7*N9</f>
+      <c r="N22">
+        <f>N10*N13</f>
         <v>3.9630068250616812</v>
       </c>
-      <c r="P18">
-        <f>P7*P9</f>
+      <c r="P22">
+        <f>P10*P13</f>
         <v>20.740774263027721</v>
       </c>
-      <c r="Q18">
-        <f>Q7*Q9</f>
+      <c r="Q22">
+        <f>Q10*Q13</f>
         <v>15.473397000000002</v>
       </c>
-      <c r="R18">
-        <f>R7*R9</f>
+      <c r="R22">
+        <f>R10*R13</f>
         <v>5.619148484946118</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19">
-        <f>D7*D10</f>
+      <c r="D23">
+        <f>D10*D14</f>
         <v>0.76529797870035532</v>
       </c>
-      <c r="E19">
-        <f>E7*E10</f>
+      <c r="E23">
+        <f>E10*E14</f>
         <v>0.49743436888467957</v>
       </c>
-      <c r="F19">
-        <f>F7*F10</f>
+      <c r="F23">
+        <f>F10*F14</f>
         <v>1.7095611977512868</v>
       </c>
-      <c r="H19">
-        <f>H7*H10</f>
+      <c r="H23">
+        <f>H10*H14</f>
         <v>0.65782807188435233</v>
       </c>
-      <c r="I19">
-        <f>I7*I10</f>
+      <c r="I23">
+        <f>I10*I14</f>
         <v>0.38825244278899168</v>
       </c>
-      <c r="J19">
-        <f>J7*J10</f>
+      <c r="J23">
+        <f>J10*J14</f>
         <v>1.603377581531106</v>
       </c>
-      <c r="L19">
-        <f>L7*L10</f>
+      <c r="L23">
+        <f>L10*L14</f>
         <v>1.55455886</v>
       </c>
-      <c r="M19">
-        <f>M7*M10</f>
+      <c r="M23">
+        <f>M10*M14</f>
         <v>0.31395432383989458</v>
       </c>
-      <c r="N19">
-        <f>N7*N10</f>
+      <c r="N23">
+        <f>N10*N14</f>
         <v>1.5705323258380941</v>
       </c>
-      <c r="P19">
-        <f>P7*P10</f>
+      <c r="P23">
+        <f>P10*P14</f>
         <v>0.87824742645913334</v>
       </c>
-      <c r="Q19">
-        <f>Q7*Q10</f>
+      <c r="Q23">
+        <f>Q10*Q14</f>
         <v>0.45819346499999997</v>
       </c>
-      <c r="R19">
-        <f>R7*R10</f>
+      <c r="R23">
+        <f>R10*R14</f>
         <v>1.8617078068353436</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
-        <f>D8*D12</f>
+      <c r="D25">
+        <f>D11*D16</f>
         <v>79.908254067647832</v>
       </c>
-      <c r="E21">
-        <f>E8*E12</f>
+      <c r="E25">
+        <f>E11*E16</f>
         <v>0.43706244231650021</v>
       </c>
-      <c r="F21">
-        <f>F8*F12</f>
+      <c r="F25">
+        <f>F11*F16</f>
         <v>2.1957569934936593E-2</v>
       </c>
-      <c r="H21">
-        <f>H8*H12</f>
+      <c r="H25">
+        <f>H11*H16</f>
         <v>0.98527885449274444</v>
       </c>
-      <c r="I21">
-        <f>I8*I12</f>
+      <c r="I25">
+        <f>I11*I16</f>
         <v>0.92960725719585424</v>
       </c>
-      <c r="J21">
-        <f>J8*J12</f>
+      <c r="J25">
+        <f>J11*J16</f>
         <v>6.1884839719783509E-3</v>
       </c>
-      <c r="L21">
-        <f>L8*L12</f>
+      <c r="L25">
+        <f>L11*L16</f>
         <v>2.0791517600798001E-2</v>
       </c>
-      <c r="M21">
-        <f>M8*M12</f>
+      <c r="M25">
+        <f>M11*M16</f>
         <v>5.0044778425694526E-2</v>
       </c>
-      <c r="N21">
-        <f>N8*N12</f>
+      <c r="N25">
+        <f>N11*N16</f>
         <v>0.1703449949940522</v>
       </c>
-      <c r="P21">
-        <f>P8*P12</f>
+      <c r="P25">
+        <f>P11*P16</f>
         <v>0.29282169729985091</v>
       </c>
-      <c r="Q21">
-        <f>Q8*Q12</f>
+      <c r="Q25">
+        <f>Q11*Q16</f>
         <v>4.5833765111807277E-2</v>
       </c>
-      <c r="R21">
-        <f>R8*R12</f>
+      <c r="R25">
+        <f>R11*R16</f>
         <v>1.5710324882605996E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
-        <f>D11/D9</f>
+      <c r="D27">
+        <f>D15/D13</f>
         <v>3.581386091503695</v>
       </c>
-      <c r="E23">
-        <f>E11/E9</f>
+      <c r="E27">
+        <f>E15/E13</f>
         <v>2.0270491568763762</v>
       </c>
-      <c r="F23">
-        <f>F11/F9</f>
+      <c r="F27">
+        <f>F15/F13</f>
         <v>0.99295646704826479</v>
       </c>
-      <c r="H23">
-        <f>H11/H9</f>
+      <c r="H27">
+        <f>H15/H13</f>
         <v>8.4662531047896223</v>
       </c>
-      <c r="I23">
-        <f>I11/I9</f>
+      <c r="I27">
+        <f>I15/I13</f>
         <v>2.0184018684629899</v>
       </c>
-      <c r="J23">
-        <f>J11/J9</f>
+      <c r="J27">
+        <f>J15/J13</f>
         <v>3.4375377774189944</v>
       </c>
-      <c r="L23">
-        <f>L11/L9</f>
+      <c r="L27">
+        <f>L15/L13</f>
         <v>5.9586394109935465</v>
       </c>
-      <c r="M23">
-        <f>M11/M9</f>
+      <c r="M27">
+        <f>M15/M13</f>
         <v>0.89645072736012932</v>
       </c>
-      <c r="N23">
-        <f>N11/N9</f>
+      <c r="N27">
+        <f>N15/N13</f>
         <v>7.0648394451768857</v>
       </c>
-      <c r="P23">
-        <f>P11/P9</f>
+      <c r="P27">
+        <f>P15/P13</f>
         <v>3.057394506516379</v>
       </c>
-      <c r="Q23">
-        <f>Q11/Q9</f>
+      <c r="Q27">
+        <f>Q15/Q13</f>
         <v>1.1132803585405324</v>
       </c>
-      <c r="R23">
-        <f>R11/R9</f>
+      <c r="R27">
+        <f>R15/R13</f>
         <v>4.4440204274230561</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24">
-        <f>D9/D10</f>
+      <c r="D28">
+        <f>D13/D14</f>
         <v>8.6083008513368071</v>
       </c>
-      <c r="E24">
-        <f>E9/E10</f>
+      <c r="E28">
+        <f>E13/E14</f>
         <v>7.1167951020115012</v>
       </c>
-      <c r="F24">
-        <f>F9/F10</f>
+      <c r="F28">
+        <f>F13/F14</f>
         <v>1.4540242098472662</v>
       </c>
-      <c r="H24">
-        <f>H9/H10</f>
+      <c r="H28">
+        <f>H13/H14</f>
         <v>18.475565185345275</v>
       </c>
-      <c r="I24">
-        <f>I9/I10</f>
+      <c r="I28">
+        <f>I13/I14</f>
         <v>18.626269449629742</v>
       </c>
-      <c r="J24">
-        <f>J9/J10</f>
+      <c r="J28">
+        <f>J13/J14</f>
         <v>1.4244990095089489</v>
       </c>
-      <c r="L24">
-        <f>L9/L10</f>
+      <c r="L28">
+        <f>L13/L14</f>
         <v>8.7119508617383588</v>
       </c>
-      <c r="M24">
-        <f>M9/M10</f>
+      <c r="M28">
+        <f>M13/M14</f>
         <v>51.00794767687745</v>
       </c>
-      <c r="N24">
-        <f>N9/N10</f>
+      <c r="N28">
+        <f>N13/N14</f>
         <v>2.5233525982643332</v>
       </c>
-      <c r="P24">
-        <f>P9/P10</f>
+      <c r="P28">
+        <f>P13/P14</f>
         <v>23.61609455167909</v>
       </c>
-      <c r="Q24">
-        <f>Q9/Q10</f>
+      <c r="Q28">
+        <f>Q13/Q14</f>
         <v>33.770444543551058</v>
       </c>
-      <c r="R24">
-        <f>R9/R10</f>
+      <c r="R28">
+        <f>R13/R14</f>
         <v>3.0182762645755483</v>
       </c>
     </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="15"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="15"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+      <c r="C43" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
+  <mergeCells count="5">
+    <mergeCell ref="U5:U16"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>